--- a/INFORMACION Testing_ mocha.jsychai.js.xlsx
+++ b/INFORMACION Testing_ mocha.jsychai.js.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -53,13 +53,32 @@
   </si>
   <si>
     <t>https://drive.google.com/drive/folders/10_iz-9nkERnCF69szUsWM-zWo5eiA36v?usp=sharing</t>
+  </si>
+  <si>
+    <t>i.js
+Tarea de investigación
+Creación de un test desde cero (tal como lo aprendimos)
+Pruebas con  (assert - expect - should).
+Trabajar con TDD (Test-Driven Development ) - Realizamos primero las pruebas y luego el código.</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Resolucion ejercicios de mocha y chai</t>
+  </si>
+  <si>
+    <t>Inicio de estudio y proyecto de webdrivw.io</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1fuNTgwrM6iL56aAauVD2pQ0KCWA8MQIb/view?usp=sharing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -120,8 +139,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -146,6 +180,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -208,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -243,14 +283,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -470,27 +518,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.90625" style="15"/>
+    <col min="1" max="4" width="10.90625" style="13"/>
+    <col min="5" max="5" width="3.26953125" style="13" customWidth="1"/>
+    <col min="6" max="16384" width="10.90625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.25">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="29" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -503,11 +554,12 @@
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>44722</v>
       </c>
@@ -520,25 +572,67 @@
       <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
+        <v>44725</v>
+      </c>
+      <c r="B4" s="13">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
+        <v>44741</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
+        <v>44743</v>
+      </c>
+      <c r="B6" s="13">
+        <v>4</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="18"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="E7" s="18"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="17" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="18" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="19" ht="12.5" x14ac:dyDescent="0.25"/>
@@ -601,9 +695,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -629,7 +724,7 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
     </row>

--- a/INFORMACION Testing_ mocha.jsychai.js.xlsx
+++ b/INFORMACION Testing_ mocha.jsychai.js.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1fuNTgwrM6iL56aAauVD2pQ0KCWA8MQIb/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>avance  proyecto de webdrive.io configuracion de test</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1QtVRqy_x_5Bh7ux65467HIhaByQ0_Tc9/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -294,11 +300,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -521,7 +527,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="A7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -532,12 +538,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
       <c r="E1" s="16"/>
       <c r="F1" s="1"/>
     </row>
@@ -616,12 +622,24 @@
       <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
+        <v>44746</v>
+      </c>
+      <c r="B7" s="13">
+        <v>5</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
@@ -696,9 +714,10 @@
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/INFORMACION Testing_ mocha.jsychai.js.xlsx
+++ b/INFORMACION Testing_ mocha.jsychai.js.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -79,12 +79,19 @@
   <si>
     <t>https://drive.google.com/file/d/1QtVRqy_x_5Bh7ux65467HIhaByQ0_Tc9/view?usp=sharing</t>
   </si>
+  <si>
+    <t>Seguimos trabajando con Webdriver.Io
+Automatizamos una prueba con el login de git Hub</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1e7Sj15YoLQgUpHliulHaSmiZV912Vrlu/view?usp=sharing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -156,6 +163,13 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,7 +207,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -249,12 +263,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -305,6 +334,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -527,7 +568,7 @@
   <dimension ref="A1:F72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -627,7 +668,7 @@
       </c>
       <c r="E6" s="18"/>
     </row>
-    <row r="7" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
         <v>44746</v>
       </c>
@@ -642,7 +683,20 @@
       </c>
       <c r="E7" s="18"/>
     </row>
-    <row r="8" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="125.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>44748</v>
+      </c>
+      <c r="B8" s="23">
+        <v>6</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
@@ -715,9 +769,10 @@
     <hyperlink ref="D3" r:id="rId1"/>
     <hyperlink ref="D6" r:id="rId2"/>
     <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D8" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/INFORMACION Testing_ mocha.jsychai.js.xlsx
+++ b/INFORMACION Testing_ mocha.jsychai.js.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Estructura de Clases y Carpetas</t>
   </si>
@@ -85,6 +85,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1e7Sj15YoLQgUpHliulHaSmiZV912Vrlu/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>Investigacion Webdriver.io</t>
+  </si>
+  <si>
+    <t>Pruebas con webdriver.io. Probamos typerscript preparamos archivos para pasar a babel</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1OXn2nR5tdxhwZw8iC-Fb6sMhxQoSpcWO/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -207,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -278,12 +287,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -330,10 +354,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -345,6 +365,17 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -567,8 +598,8 @@
   </sheetPr>
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -579,12 +610,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="16"/>
       <c r="F1" s="1"/>
     </row>
@@ -684,21 +715,44 @@
       <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:6" ht="125.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="20">
         <v>44748</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="21">
         <v>6</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
+        <v>44749</v>
+      </c>
+      <c r="B9" s="24">
+        <v>7</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>44761</v>
+      </c>
+      <c r="B10" s="28">
+        <v>8</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
     <row r="13" spans="1:6" ht="12.5" x14ac:dyDescent="0.25"/>
@@ -770,9 +824,10 @@
     <hyperlink ref="D6" r:id="rId2"/>
     <hyperlink ref="D7" r:id="rId3"/>
     <hyperlink ref="D8" r:id="rId4"/>
+    <hyperlink ref="D10" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
